--- a/datasets/tactileperception/DAC/tactile_data_one_participant.xlsx
+++ b/datasets/tactileperception/DAC/tactile_data_one_participant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samversteege/Documents/Master Thesis/code/student/DAC/Tactile Device/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcw/Documents/GitHub/bayesian-data-analysis/datasets/tactileperception/DAC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{555F6E6A-F8A6-6D4C-A790-01FBE62839F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26052A59-1206-EE4A-BAB9-E4B93C60E7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="1000" windowWidth="27840" windowHeight="15820" xr2:uid="{09E89B7D-4242-9144-B1EB-57FA1A32FE33}"/>
   </bookViews>
@@ -36,9 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>stimuli</t>
+    <t>trial</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t>stimulus</t>
   </si>
   <si>
     <t>response</t>
@@ -87,7 +93,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -103,7 +109,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -419,763 +425,1327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E560DA63-7B9E-8C43-B32A-C1BDD5211136}">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>-15</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D2" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>-7</v>
       </c>
-      <c r="B3" s="1">
+      <c r="D3" s="1">
         <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="D4" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>-13</v>
       </c>
-      <c r="B5" s="1">
+      <c r="D5" s="1">
         <v>-11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
         <v>14</v>
       </c>
-      <c r="B6" s="1">
+      <c r="D6" s="1">
         <v>-12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
+      <c r="D7" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
         <v>-12</v>
       </c>
-      <c r="B8" s="1">
+      <c r="D8" s="1">
         <v>-7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
         <v>-10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="D9" s="1">
         <v>-5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
         <v>-13</v>
       </c>
-      <c r="B11" s="1">
+      <c r="D11" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
         <v>-10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="D12" s="1">
         <v>-4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="B13" s="1">
+      <c r="D13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
         <v>-9</v>
       </c>
-      <c r="B14" s="1">
+      <c r="D14" s="1">
         <v>-10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
         <v>-5</v>
       </c>
-      <c r="B15" s="1">
+      <c r="D15" s="1">
         <v>-3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
         <v>7</v>
       </c>
-      <c r="B16" s="1">
+      <c r="D16" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
+      <c r="D17" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
         <v>-2</v>
       </c>
-      <c r="B18" s="1">
+      <c r="D18" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
         <v>-1</v>
       </c>
-      <c r="B19" s="1">
+      <c r="D19" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
         <v>13</v>
       </c>
-      <c r="B20" s="1">
+      <c r="D20" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
         <v>-4</v>
       </c>
-      <c r="B21" s="1">
+      <c r="D21" s="1">
         <v>-4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="B22" s="1">
+      <c r="D22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
         <v>-6</v>
       </c>
-      <c r="B23" s="1">
+      <c r="D23" s="1">
         <v>-7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
         <v>15</v>
       </c>
-      <c r="B24" s="1">
+      <c r="D24" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
         <v>-8</v>
       </c>
-      <c r="B25" s="1">
+      <c r="D25" s="1">
         <v>-5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
         <v>4</v>
       </c>
-      <c r="B26" s="1">
+      <c r="D26" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
         <v>-14</v>
       </c>
-      <c r="B27" s="1">
+      <c r="D27" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
         <v>-9</v>
       </c>
-      <c r="B28" s="1">
+      <c r="D28" s="1">
         <v>-13</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
         <v>8</v>
       </c>
-      <c r="B29" s="1">
+      <c r="D29" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
         <v>-9</v>
       </c>
-      <c r="B30" s="1">
+      <c r="D30" s="1">
         <v>-5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
         <v>11</v>
       </c>
-      <c r="B31" s="1">
+      <c r="D31" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
         <v>-2</v>
       </c>
-      <c r="B32" s="1">
+      <c r="D32" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
         <v>3</v>
       </c>
-      <c r="B33" s="1">
+      <c r="D33" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
         <v>11</v>
       </c>
-      <c r="B34" s="1">
+      <c r="D34" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
         <v>-5</v>
       </c>
-      <c r="B35" s="1">
+      <c r="D35" s="1">
         <v>-4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
         <v>12</v>
       </c>
-      <c r="B36" s="1">
+      <c r="D36" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>1</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
         <v>-6</v>
       </c>
-      <c r="B38" s="1">
+      <c r="D38" s="1">
         <v>-5</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
         <v>0</v>
       </c>
-      <c r="B39" s="1">
+      <c r="D39" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
         <v>2</v>
       </c>
-      <c r="B40" s="1">
+      <c r="D40" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
         <v>-2</v>
       </c>
-      <c r="B41" s="1">
+      <c r="D41" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
         <v>-1</v>
       </c>
-      <c r="B42" s="1">
+      <c r="D42" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
         <v>9</v>
       </c>
-      <c r="B43" s="1">
+      <c r="D43" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
         <v>-15</v>
       </c>
-      <c r="B44" s="1">
+      <c r="D44" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
         <v>15</v>
       </c>
-      <c r="B45" s="1">
+      <c r="D45" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
         <v>-8</v>
       </c>
-      <c r="B46" s="1">
+      <c r="D46" s="1">
         <v>-6</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
         <v>-11</v>
       </c>
-      <c r="B47" s="1">
+      <c r="D47" s="1">
         <v>-4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
         <v>6</v>
       </c>
-      <c r="B48" s="1">
+      <c r="D48" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
         <v>12</v>
       </c>
-      <c r="B49" s="1">
+      <c r="D49" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
         <v>5</v>
       </c>
-      <c r="B50" s="1">
+      <c r="D50" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
         <v>12</v>
       </c>
-      <c r="B51" s="1">
+      <c r="D51" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>1</v>
-      </c>
-      <c r="B52" s="1">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
         <v>-11</v>
       </c>
-      <c r="B53" s="1">
+      <c r="D53" s="1">
         <v>-13</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>1</v>
-      </c>
-      <c r="B54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
         <v>6</v>
       </c>
-      <c r="B55" s="1">
+      <c r="D55" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
         <v>13</v>
       </c>
-      <c r="B56" s="1">
+      <c r="D56" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
         <v>5</v>
       </c>
-      <c r="B57" s="1">
+      <c r="D57" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
         <v>9</v>
       </c>
-      <c r="B58" s="1">
+      <c r="D58" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
         <v>5</v>
       </c>
-      <c r="B59" s="1">
+      <c r="D59" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
         <v>-10</v>
       </c>
-      <c r="B60" s="1">
+      <c r="D60" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
         <v>-14</v>
       </c>
-      <c r="B61" s="1">
+      <c r="D61" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
         <v>15</v>
       </c>
-      <c r="B62" s="1">
+      <c r="D62" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
         <v>2</v>
       </c>
-      <c r="B63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1">
         <v>11</v>
       </c>
-      <c r="B64" s="1">
+      <c r="D64" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
         <v>14</v>
       </c>
-      <c r="B65" s="1">
+      <c r="D65" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
         <v>10</v>
       </c>
-      <c r="B66" s="1">
+      <c r="D66" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
         <v>3</v>
       </c>
-      <c r="B67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
         <v>9</v>
       </c>
-      <c r="B68" s="1">
+      <c r="D68" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
         <v>10</v>
       </c>
-      <c r="B69" s="1">
+      <c r="D69" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
         <v>-4</v>
       </c>
-      <c r="B70" s="1">
+      <c r="D70" s="1">
         <v>-3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1">
         <v>3</v>
       </c>
-      <c r="B71" s="1">
+      <c r="D71" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
         <v>-3</v>
       </c>
-      <c r="B72" s="1">
+      <c r="D72" s="1">
         <v>-3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
         <v>-1</v>
       </c>
-      <c r="B73" s="1">
+      <c r="D73" s="1">
         <v>-3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
         <v>-5</v>
       </c>
-      <c r="B74" s="1">
+      <c r="D74" s="1">
         <v>-6</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
         <v>-15</v>
       </c>
-      <c r="B75" s="1">
+      <c r="D75" s="1">
         <v>-14</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
         <v>-11</v>
       </c>
-      <c r="B76" s="1">
+      <c r="D76" s="1">
         <v>-13</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1">
         <v>4</v>
       </c>
-      <c r="B77" s="1">
+      <c r="D77" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
         <v>-7</v>
       </c>
-      <c r="B78" s="1">
+      <c r="D78" s="1">
         <v>-4</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1">
         <v>7</v>
       </c>
-      <c r="B79" s="1">
+      <c r="D79" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
         <v>-13</v>
       </c>
-      <c r="B80" s="1">
+      <c r="D80" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1">
         <v>-14</v>
       </c>
-      <c r="B81" s="1">
+      <c r="D81" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
         <v>-12</v>
       </c>
-      <c r="B82" s="1">
+      <c r="D82" s="1">
         <v>-13</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1">
         <v>2</v>
       </c>
-      <c r="B83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1">
         <v>7</v>
       </c>
-      <c r="B84" s="1">
+      <c r="D84" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1">
         <v>-3</v>
       </c>
-      <c r="B85" s="1">
+      <c r="D85" s="1">
         <v>-3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1">
         <v>8</v>
       </c>
-      <c r="B86" s="1">
+      <c r="D86" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
         <v>-8</v>
       </c>
-      <c r="B87" s="1">
+      <c r="D87" s="1">
         <v>-5</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1">
         <v>-3</v>
       </c>
-      <c r="B88" s="1">
+      <c r="D88" s="1">
         <v>-3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
         <v>-7</v>
       </c>
-      <c r="B89" s="1">
+      <c r="D89" s="1">
         <v>-7</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1">
         <v>-12</v>
       </c>
-      <c r="B90" s="1">
+      <c r="D90" s="1">
         <v>-12</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1">
         <v>4</v>
       </c>
-      <c r="B91" s="1">
+      <c r="D91" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
         <v>10</v>
       </c>
-      <c r="B92" s="1">
+      <c r="D92" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
         <v>-6</v>
       </c>
-      <c r="B93" s="1">
+      <c r="D93" s="1">
         <v>-4</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1">
         <v>-4</v>
       </c>
-      <c r="B94" s="1">
+      <c r="D94" s="1">
         <v>-3</v>
       </c>
     </row>
